--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3073647.670749104</v>
+        <v>3071760.089232702</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>359.9927133828765</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.5220440822058</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>158.21926211116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>174.1404107077194</v>
       </c>
     </row>
     <row r="6">
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>68.4314178382491</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>367.5424755537134</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>194.9730522231948</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385035</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>183.4653217847141</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113181</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274071</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>47.27820527287624</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>174.1469912450193</v>
+        <v>93.87916681139852</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.489884506512</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>31.13654107019612</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404423</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>137.125867685469</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404424</v>
+        <v>48.52367933248183</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>93.41221638965523</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.23070601801204</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>90.21779139437412</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>55.04972555246991</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>65.96508953777754</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>577.9834619915252</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>577.9834619915252</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>571.0379612423218</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
         <v>814.0449459359563</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>331.20325038051</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>331.20325038051</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1744.740694543503</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>1375.778177603092</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1017.512478996341</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>631.7242263980968</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519315</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>1744.740694543503</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>659.0063399253745</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>659.0063399253745</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8327295799424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8327295799424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.083928634017</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936052</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>439.1214116936052</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>439.1214116936052</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2445.177924555589</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>2114.115037212019</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.28885893503</v>
+        <v>1761.346381941905</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.82310067395</v>
+        <v>1387.880623680825</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,55 +5015,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387593</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011508</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952639</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5300,25 +5300,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635867</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300437</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.59991596447</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1340.085404217833</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1340.085404217833</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011509</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952639</v>
+        <v>796.2722772255038</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583034</v>
+        <v>506.8551071885431</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905257</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905257</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,16 +5510,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341677</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2279.445761859784</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U19" t="n">
-        <v>1211.935115357083</v>
+        <v>869.308300601151</v>
       </c>
       <c r="V19" t="n">
-        <v>957.2506271511957</v>
+        <v>614.6238123952641</v>
       </c>
       <c r="W19" t="n">
-        <v>667.8334571142351</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X19" t="n">
-        <v>667.8334571142351</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.040877970705</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.217138262065</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>820.5263570570733</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018334</v>
+        <v>531.1091870201126</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340558</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905257</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -5984,25 +5984,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977054</v>
+        <v>841.8631140141297</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>1646.274692278281</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2315.73845358094</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6181,16 +6181,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>647.5712290164489</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>647.5712290164489</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729188</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,46 +6209,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977054</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028581</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028581</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609668</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>936.9883990534094</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028581</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028581</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215252</v>
+        <v>600.4439501541569</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749891</v>
+        <v>487.2686325076209</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440242</v>
+        <v>392.9128583766559</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430019</v>
+        <v>300.7606300756337</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1736.652680096194</v>
+        <v>1623.942368323875</v>
       </c>
       <c r="U31" t="n">
-        <v>1503.284906591123</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="V31" t="n">
-        <v>1447.67912320479</v>
+        <v>1191.650971894288</v>
       </c>
       <c r="W31" t="n">
-        <v>1214.0228184492</v>
+        <v>957.9946671386978</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832553</v>
+        <v>891.3632635651851</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703942</v>
+        <v>726.3315497030258</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977053</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083196</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210312</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7078,10 +7078,10 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,13 +7114,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7151,16 +7151,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,34 +7184,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>410.8745301331627</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7418,19 +7418,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7740,10 +7740,10 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2227.840212610278</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2432.862693392488</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7807,31 +7807,31 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>234.4116509503156</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231143</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>283.6093329825484</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9246,19 +9246,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>423.337678916511</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>52.49733361305152</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>145.2351313103787</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.0237016735861</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445214</v>
@@ -9720,25 +9720,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>15.8380490462275</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>50.62661940943559</v>
       </c>
       <c r="O27" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>85.30006332127721</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10434,22 +10434,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>308.1251096272027</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,22 +10671,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229581</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>124.3400780863225</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>43.65987261462419</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>104.6241510367949</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>14.45548819888914</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>150.6426047107271</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>112.090361153558</v>
+        <v>192.3581855871789</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>194.573114318841</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338568</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>149.3971306511221</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338562</v>
+        <v>203.6139639913462</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.710571738979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571484</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523565</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>141.884661142801</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>104.5413092227025</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780090.9989214451</v>
+        <v>780090.998921445</v>
       </c>
     </row>
     <row r="12">
@@ -26314,34 +26314,34 @@
         <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914266</v>
-      </c>
       <c r="E2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.495580334</v>
       </c>
       <c r="H2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="I2" t="n">
-        <v>625646.4955803341</v>
-      </c>
       <c r="J2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="K2" t="n">
-        <v>650915.4197524316</v>
+        <v>650915.4197524312</v>
       </c>
       <c r="L2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.415891427</v>
       </c>
       <c r="M2" t="n">
         <v>656833.415891427</v>
@@ -26350,7 +26350,7 @@
         <v>656833.4158914261</v>
       </c>
       <c r="O2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914274</v>
       </c>
       <c r="P2" t="n">
         <v>656833.415891427</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.9068008668</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338373</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284555</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007401</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007418</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007413</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007414</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>7916.731656007461</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007461</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007479</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="K4" t="n">
-        <v>26081.35417020404</v>
+        <v>26081.35417020401</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732789</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732792</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="M4" t="n">
-        <v>30335.51889732798</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732798</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732795</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732796</v>
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002542</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163910.5901024483</v>
+        <v>-163910.5901024484</v>
       </c>
       <c r="C6" t="n">
+        <v>426057.2891120963</v>
+      </c>
+      <c r="D6" t="n">
         <v>426057.2891120964</v>
       </c>
-      <c r="D6" t="n">
-        <v>426057.2891120963</v>
-      </c>
       <c r="E6" t="n">
-        <v>582.4014987136034</v>
+        <v>484.9423727411481</v>
       </c>
       <c r="F6" t="n">
-        <v>525742.4379756096</v>
+        <v>525644.9788496376</v>
       </c>
       <c r="G6" t="n">
-        <v>525742.4379756098</v>
+        <v>525644.9788496378</v>
       </c>
       <c r="H6" t="n">
-        <v>525742.4379756101</v>
+        <v>525644.9788496378</v>
       </c>
       <c r="I6" t="n">
-        <v>525742.4379756101</v>
+        <v>525644.978849638</v>
       </c>
       <c r="J6" t="n">
-        <v>349319.218783017</v>
+        <v>349221.7596570447</v>
       </c>
       <c r="K6" t="n">
-        <v>484043.2517491591</v>
+        <v>484024.7580112243</v>
       </c>
       <c r="L6" t="n">
-        <v>518439.8843732069</v>
+        <v>518439.8843732068</v>
       </c>
       <c r="M6" t="n">
         <v>393981.7759402363</v>
@@ -26558,10 +26558,10 @@
         <v>528782.7911740728</v>
       </c>
       <c r="O6" t="n">
-        <v>528782.7911740735</v>
+        <v>528782.7911740741</v>
       </c>
       <c r="P6" t="n">
-        <v>484620.1858712279</v>
+        <v>484620.1858712281</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
-      </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541005</v>
@@ -26756,25 +26756,25 @@
         <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,22 +26793,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.9286335010835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>53.79145663791849</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>6.911918564363333</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>197.662087304794</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>248.6567836305514</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>212.0975279483342</v>
       </c>
     </row>
     <row r="6">
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27822,19 +27822,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>143.7141211117698</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>39.33357018799802</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>56.25111528509447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,16 +28062,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.2516047562942</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,10 +28138,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.607718096583367e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.172104466564225e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>384.987089538255</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110537</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>594.0337100330148</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507419</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35966,19 +35966,19 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>259.5907485445763</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507419</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36121,10 +36121,10 @@
         <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221118</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
@@ -36206,19 +36206,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>455.6595083608451</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.0367344586603</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>222.9314639777523</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>383.8211928074485</v>
       </c>
       <c r="O27" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>418.4946367192902</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412267</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.4289566004319</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>641.3196830252157</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>487.1420318003109</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>274.9155166742618</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>354.0842496650906</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38108,13 +38108,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>192.637183821869</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
